--- a/UML.xlsx
+++ b/UML.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Разработка ПО</t>
   </si>
@@ -76,6 +76,36 @@
   </si>
   <si>
     <t>Каскадный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrum — это набор принципов, на которых строится процесс разработки, позволяющий в жёстко фиксированные и небольшие по </t>
+  </si>
+  <si>
+    <t xml:space="preserve">времени итерации, называемые спринтами (sprints), предоставлять конечному пользователю работающее ПО с новыми </t>
+  </si>
+  <si>
+    <t xml:space="preserve">возможностями, для которых определён наибольший приоритет. Возможности ПО к реализации в очередном спринте </t>
+  </si>
+  <si>
+    <t xml:space="preserve">определяются в начале спринта на этапе планирования и не могут изменяться на всём его протяжении. При этом строго </t>
+  </si>
+  <si>
+    <t>фиксированная небольшая длительность спринта придаёт процессу разработки предсказуемость и гибкость.</t>
+  </si>
+  <si>
+    <t>http://michaelsmirnov.blogspot.com/2011/03/uml.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сайт - </t>
+  </si>
+  <si>
+    <t>Модель взаимодействия</t>
+  </si>
+  <si>
+    <t>Сценарий</t>
+  </si>
+  <si>
+    <t>д. последовательности</t>
   </si>
 </sst>
 </file>
@@ -650,15 +680,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -674,16 +704,22 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="14"/>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
-      <c r="U1" s="3"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="3"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -701,18 +737,22 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="7"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="7"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -728,16 +768,22 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="7"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="7"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -753,18 +799,22 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="18"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="7"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -780,8 +830,22 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="12"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
         <v>6</v>
@@ -805,8 +869,16 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -822,8 +894,18 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
@@ -843,8 +925,16 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P8" s="15"/>
+      <c r="Q8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
@@ -862,8 +952,18 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="18"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
@@ -881,8 +981,14 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
@@ -901,7 +1007,7 @@
       <c r="N11" s="8"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -918,7 +1024,7 @@
       <c r="N12" s="8"/>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="9" t="s">
         <v>8</v>
@@ -939,7 +1045,7 @@
       <c r="N13" s="9"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="9" t="s">
         <v>9</v>
@@ -958,7 +1064,7 @@
       <c r="N14" s="9"/>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -975,6 +1081,19 @@
       <c r="N15" s="11"/>
       <c r="O15" s="12"/>
     </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/UML.xlsx
+++ b/UML.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Разработка ПО</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>д. последовательности</t>
+  </si>
+  <si>
+    <t>Нужно зафиксировать начальные показатели</t>
+  </si>
+  <si>
+    <t>Нужно зафиксировать конечные показатели</t>
+  </si>
+  <si>
+    <t>Возможность доказать пользу приложения</t>
   </si>
 </sst>
 </file>
@@ -181,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -264,6 +273,43 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -277,7 +323,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -297,6 +343,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Акцент2" xfId="4" builtinId="33"/>
@@ -389,6 +442,53 @@
         <a:xfrm>
           <a:off x="10191750" y="2667000"/>
           <a:ext cx="323850" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Прямая со стрелкой 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13763625" y="2762250"/>
+          <a:ext cx="628650" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -680,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,12 +1081,16 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="7"/>
-      <c r="P10" t="s">
+      <c r="P10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="20" t="s">
         <v>24</v>
       </c>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="25"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1023,6 +1127,9 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="7"/>
+      <c r="P12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -1081,18 +1188,39 @@
       <c r="N15" s="11"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F22" t="s">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="P16" t="s">
         <v>27</v>
       </c>
-      <c r="I22" t="s">
+      <c r="S16" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
